--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -47,13 +47,26 @@
   </si>
   <si>
     <t>Cadastrar Consumidor</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentual restante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +90,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -97,6 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -107,16 +163,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -418,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -531,6 +595,33 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B2:B15)</f>
+        <v>268</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C2:C15)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7">
+        <f>(C16/B16)*100%</f>
+        <v>0.73880597014925375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -40,19 +40,73 @@
     <t>recuperar senha</t>
   </si>
   <si>
-    <t xml:space="preserve">cadastrar usuario </t>
-  </si>
-  <si>
     <t>Manter financeiro consumidor</t>
   </si>
   <si>
-    <t>Cadastrar Consumidor</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Percentual restante</t>
+  </si>
+  <si>
+    <t>Manter Consumidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter usuario </t>
+  </si>
+  <si>
+    <t>Manter cliente</t>
+  </si>
+  <si>
+    <t>Manter fornecedor</t>
+  </si>
+  <si>
+    <t>Manter Representante</t>
+  </si>
+  <si>
+    <t>Manter funcionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter sugestão </t>
+  </si>
+  <si>
+    <t>Manter Ajuda</t>
+  </si>
+  <si>
+    <t>Manter acesso</t>
+  </si>
+  <si>
+    <t>Manter Produto</t>
+  </si>
+  <si>
+    <t>Manter cartegoria</t>
+  </si>
+  <si>
+    <t>Manter grade</t>
+  </si>
+  <si>
+    <t>Manter Ordem de serviço</t>
+  </si>
+  <si>
+    <t>Manter Localidade</t>
+  </si>
+  <si>
+    <t>Manter entrega</t>
+  </si>
+  <si>
+    <t>Manter lote de produto</t>
+  </si>
+  <si>
+    <t>manter caixa</t>
+  </si>
+  <si>
+    <t>Manter unidade de venda</t>
+  </si>
+  <si>
+    <t>Manter auditoria</t>
+  </si>
+  <si>
+    <t>Manter Perfil  funcionalidade</t>
   </si>
 </sst>
 </file>
@@ -167,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -175,8 +229,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +619,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -575,7 +630,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -586,40 +641,239 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <f>SUM(B2:B34)</f>
+        <v>602</v>
+      </c>
+      <c r="C35" s="5">
+        <f>SUM(C2:C34)</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4">
-        <f>SUM(B2:B15)</f>
-        <v>268</v>
-      </c>
-      <c r="C16" s="5">
-        <f>SUM(C2:C15)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7">
-        <f>(C16/B16)*100%</f>
-        <v>0.73880597014925375</v>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8">
+        <f>(C35/B35)*100%</f>
+        <v>0.88372093023255816</v>
       </c>
     </row>
   </sheetData>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Manter Perfil  funcionalidade</t>
+  </si>
+  <si>
+    <t>Manter Lembrete</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,17 +851,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
     <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
         <f>SUM(B2:B34)</f>
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C35" s="5">
         <f>SUM(C2:C34)</f>
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -873,7 +887,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="8">
         <f>(C35/B35)*100%</f>
-        <v>0.88372093023255816</v>
+        <v>0.88524590163934425</v>
       </c>
     </row>
   </sheetData>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Ajuste pra gerar classes do Banco</t>
   </si>
   <si>
-    <t>logar no sistema</t>
-  </si>
-  <si>
-    <t>recuperar senha</t>
-  </si>
-  <si>
     <t>Manter financeiro consumidor</t>
   </si>
   <si>
@@ -97,12 +91,6 @@
     <t>Manter lote de produto</t>
   </si>
   <si>
-    <t>manter caixa</t>
-  </si>
-  <si>
-    <t>Manter unidade de venda</t>
-  </si>
-  <si>
     <t>Manter auditoria</t>
   </si>
   <si>
@@ -110,6 +98,147 @@
   </si>
   <si>
     <t>Manter Lembrete</t>
+  </si>
+  <si>
+    <t>Manter produto detalhe</t>
+  </si>
+  <si>
+    <t>Manter Produto Promoção</t>
+  </si>
+  <si>
+    <t>Manter unidade de venda consumidor</t>
+  </si>
+  <si>
+    <t>Manter Chat</t>
+  </si>
+  <si>
+    <t>Manter comissão</t>
+  </si>
+  <si>
+    <t>Manter caixa</t>
+  </si>
+  <si>
+    <t>Recuperar senha</t>
+  </si>
+  <si>
+    <t>Logar no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup automático </t>
+  </si>
+  <si>
+    <t>Gestão da Empresa</t>
+  </si>
+  <si>
+    <t>Controle de acesso dos perfis</t>
+  </si>
+  <si>
+    <t>Manter mala direta</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Produto Compras</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Produto vendas</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Cliente</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Fornecedor</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Contas</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Compras</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Vendas</t>
+  </si>
+  <si>
+    <t>Abrir Venda</t>
+  </si>
+  <si>
+    <t>Mater Produto venda</t>
+  </si>
+  <si>
+    <t>Finalizar venda</t>
+  </si>
+  <si>
+    <t>Abrir compra</t>
+  </si>
+  <si>
+    <t>Mater Produto compra</t>
+  </si>
+  <si>
+    <t>Finalizar compra</t>
+  </si>
+  <si>
+    <t>Abrir Cotação</t>
+  </si>
+  <si>
+    <t>Manter produto cotação</t>
+  </si>
+  <si>
+    <t>Finalizar cotação</t>
+  </si>
+  <si>
+    <t>Abrir Orçamento</t>
+  </si>
+  <si>
+    <t>Manter produto orçamento</t>
+  </si>
+  <si>
+    <t>Finalizar orçamento</t>
+  </si>
+  <si>
+    <t>Abrir perda</t>
+  </si>
+  <si>
+    <t>Manter produto perda</t>
+  </si>
+  <si>
+    <t>Finalizar perda</t>
+  </si>
+  <si>
+    <t>Abrir devolução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter produto devolução </t>
+  </si>
+  <si>
+    <t>Finalizar devolução</t>
+  </si>
+  <si>
+    <t>Abrir Retirada</t>
+  </si>
+  <si>
+    <t>Finalizar retirada</t>
+  </si>
+  <si>
+    <t>Abrir Transferência de produto de filial</t>
+  </si>
+  <si>
+    <t>Manter produtos de transferencia</t>
+  </si>
+  <si>
+    <t>Finalizar a transferencia</t>
+  </si>
+  <si>
+    <t>Linha do Tempo Usuário</t>
+  </si>
+  <si>
+    <t>Linha do Tempo acesso</t>
+  </si>
+  <si>
+    <t>Manter Contas e ganhos</t>
+  </si>
+  <si>
+    <t>Manter filial</t>
+  </si>
+  <si>
+    <t>Manter Transportadora</t>
   </si>
 </sst>
 </file>
@@ -540,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +680,12 @@
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,185 +697,204 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G9" s="4">
+        <f>SUM(B2:B80)</f>
+        <v>1957</v>
+      </c>
+      <c r="H9" s="5">
+        <f>SUM(C2:C80)</f>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
+        <f>(H9/G9)*100%</f>
+        <v>0.72968829841594274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
       <c r="B16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>40</v>
@@ -754,18 +905,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -776,62 +927,62 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -842,7 +993,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -853,42 +1004,492 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="4">
-        <f>SUM(B2:B34)</f>
-        <v>610</v>
-      </c>
-      <c r="C35" s="5">
-        <f>SUM(C2:C34)</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8">
-        <f>(C35/B35)*100%</f>
-        <v>0.88524590163934425</v>
-      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -239,13 +239,19 @@
   </si>
   <si>
     <t>Manter Transportadora</t>
+  </si>
+  <si>
+    <t>Horas extimadas restantes</t>
+  </si>
+  <si>
+    <t>Horas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +307,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +354,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -364,6 +385,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +703,7 @@
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -848,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -857,6 +880,16 @@
       </c>
       <c r="C14">
         <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="11">
+        <f>(H9*20)/60</f>
+        <v>476</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -694,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -870,8 +873,18 @@
       <c r="C13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="11">
+        <f>(H9*20)/60</f>
+        <v>476</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -880,16 +893,6 @@
       </c>
       <c r="C14">
         <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="11">
-        <f>(H9*20)/60</f>
-        <v>476</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -924,8 +927,11 @@
       <c r="C17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -936,7 +942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -947,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -958,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -969,7 +975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -980,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -991,7 +997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -295,15 +295,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="22"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -315,6 +306,15 @@
       <i/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,11 +385,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -833,7 +833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -846,8 +846,8 @@
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="11">
         <f>(H9/G9)*100%</f>
         <v>0.72968829841594274</v>
       </c>
@@ -863,7 +863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -876,11 +876,11 @@
       <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>(H9*20)/60</f>
         <v>476</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -931,7 +931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -942,7 +942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -953,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -975,7 +975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -985,8 +985,11 @@
       <c r="C22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -248,13 +248,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta a Tabela de Gestão do consumidor </t>
+  </si>
+  <si>
+    <t>Restante pro item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,14 +271,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -379,17 +383,17 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,12 +710,13 @@
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,9 +726,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -731,10 +738,13 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -745,7 +755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -756,7 +766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -767,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -778,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -789,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -800,7 +810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -810,19 +820,19 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
         <f>SUM(B2:B80)</f>
         <v>1957</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -833,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -843,16 +853,16 @@
       <c r="C11">
         <v>13</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="11">
-        <f>(H9/G9)*100%</f>
-        <v>0.72968829841594274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10">
+        <f>(G9/F9)*100%</f>
+        <v>0.71844660194174759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -863,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -873,18 +883,18 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="10">
-        <f>(H9*20)/60</f>
-        <v>476</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="F13" s="9">
+        <f>(G9*20)/60</f>
+        <v>468.66666666666669</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -895,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -906,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -917,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -927,11 +937,11 @@
       <c r="C17">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -942,7 +952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -953,7 +963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -964,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -975,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -985,11 +995,11 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1529,9 +1539,9 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1406</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.71844660194174759</v>
+        <v>0.70822687787429739</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>468.66666666666669</v>
+        <v>462</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1386</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.70822687787429739</v>
+        <v>0.69698518140010224</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>462</v>
+        <v>454.66666666666669</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.69698518140010224</v>
+        <v>0.69136433316300461</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>454.66666666666669</v>
+        <v>451</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1353</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.69136433316300461</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>451</v>
+        <v>446.33333333333331</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1339</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.68421052631578949</v>
+        <v>0.67858967807869186</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,8 +887,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="9">
-        <f>(G9*20)/60</f>
-        <v>446.33333333333331</v>
+        <f>(G9*10)/60</f>
+        <v>221.33333333333334</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,8 +887,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="9">
-        <f>(G9*10)/60</f>
-        <v>221.33333333333334</v>
+        <f>(G9*20)/60</f>
+        <v>442.66666666666669</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -259,8 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,10 +487,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,7 +521,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -698,14 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -716,7 +714,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -744,7 +742,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -755,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -766,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -774,10 +772,10 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -788,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -799,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -810,7 +808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -829,10 +827,10 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -843,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -859,10 +857,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.67858967807869186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.67756770567194691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -873,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -888,13 +886,13 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>442.66666666666669</v>
+        <v>442</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -905,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -916,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -927,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -941,7 +939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -952,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -963,7 +961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -974,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -985,7 +983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -999,7 +997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1230,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1274,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1318,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -1494,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1527,7 +1525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>

--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -259,8 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,9 +487,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,6 +522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -696,14 +698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -714,7 +716,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -742,7 +744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -764,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -775,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -786,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -797,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -808,7 +810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -827,10 +829,10 @@
       </c>
       <c r="G9" s="4">
         <f>SUM(C2:C80)</f>
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -838,10 +840,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -857,10 +859,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <f>(G9/F9)*100%</f>
-        <v>0.67756770567194691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.67399080224833929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -871,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -886,13 +888,13 @@
       </c>
       <c r="F13" s="9">
         <f>(G9*20)/60</f>
-        <v>442</v>
+        <v>439.66666666666669</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -903,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -914,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -925,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -939,7 +941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -950,7 +952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -961,7 +963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -972,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -983,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -997,7 +999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
